--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>997750.0469341385</v>
+        <v>997750.0469341384</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140292.7756937324</v>
+        <v>158031.512979188</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>162.2121762597333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>38.19053515138876</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>67.46139364777252</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>34.9823203538329</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>79.32511041905947</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7498590796926</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.457093369454</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>94.63926978364022</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>38.02323530625872</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>41.75100837039689</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.07056651555948</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3567277916629</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1546,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>104.5113366705979</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>54.47555601903365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.15180985492955</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.440065804380347</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>49.75696784121561</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>296.7607853996625</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>122.2599453826694</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>169.0167291702117</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>269.5134569480837</v>
       </c>
       <c r="E23" t="n">
-        <v>261.8939040184052</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>125.3787979092682</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>376.1848636439243</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.50443858714236</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>52.10844059186266</v>
       </c>
       <c r="E28" t="n">
-        <v>133.7253909566179</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,13 +2728,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>142.9777266703273</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>52.10844059186244</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>144.8337594243333</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>334.5612269295216</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>49.45256041645978</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>247.99669677933</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705984</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>372.5327915267488</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>88.06311349350432</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.626661895192158</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>292.9415311655805</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.3298104615455</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.7282531589275</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>15.9124227879787</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3980,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>356.681260877744</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>244.4433883874336</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>508.1578098032604</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="C2" t="n">
-        <v>508.1578098032604</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="D2" t="n">
-        <v>508.1578098032604</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="E2" t="n">
-        <v>508.1578098032604</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="F2" t="n">
-        <v>508.1578098032604</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G2" t="n">
-        <v>508.1578098032604</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="H2" t="n">
         <v>229.2118363665377</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="W2" t="n">
-        <v>1066.049756676706</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="X2" t="n">
-        <v>1066.049756676706</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.1037832399832</v>
+        <v>672.0084928939002</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.1697526238766</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="C3" t="n">
-        <v>239.1697526238766</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="D3" t="n">
-        <v>90.23534296262534</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="E3" t="n">
-        <v>90.23534296262534</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>57.42819822127217</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>252.0556269645376</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M3" t="n">
-        <v>525.4505755298694</v>
+        <v>399.8342145467769</v>
       </c>
       <c r="N3" t="n">
-        <v>576.5717127952153</v>
+        <v>673.2291631121088</v>
       </c>
       <c r="O3" t="n">
-        <v>843.068526378499</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4440,19 +4440,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V3" t="n">
-        <v>869.473946577679</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2365898494775</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="X3" t="n">
-        <v>407.3850896439446</v>
+        <v>433.4038340062941</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.3850896439446</v>
+        <v>225.6435352413402</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.3019767171696</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>117.3019767171697</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.8914035503838</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>464.928886609972</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>464.928886609972</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2590.62677448342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2590.62677448342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.864989121511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.864989121511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1984.096333851397</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.630575590317</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1220.491243614505</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>438.955373861002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>438.955373861002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.6384645338385</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C8" t="n">
-        <v>983.6384645338385</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D8" t="n">
-        <v>625.3727659270879</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2427.535605472725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2427.535605472725</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2096.472718129154</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1743.70406285904</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X8" t="n">
-        <v>1370.23830459796</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1370.23830459796</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4899,25 +4899,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>516.422513675268</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>516.422513675268</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>516.422513675268</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>98.45870557345484</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>98.45870557345484</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>159.5099885583422</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>159.5099885583422</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>159.5099885583422</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F14" t="n">
-        <v>159.5099885583422</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5282,7 +5282,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5467,19 +5467,19 @@
         <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5540,25 +5540,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.55130328597</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.55130328597</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.55130328597</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.55130328597</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2299.782648015856</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1926.316889754776</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1536.177557778964</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5568,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2515.500626187983</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>2196.44780384774</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>2196.44780384774</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.149091018222</v>
+        <v>677.8694207304588</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="T19" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="U19" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V19" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W19" t="n">
-        <v>2697.149091018222</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X19" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>764.6872557005402</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>353.7013509109326</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5832,22 +5832,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5865,7 +5865,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>2328.443418292299</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>2328.443418292299</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>2328.443418292299</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
         <v>2022.963088632153</v>
@@ -5935,25 +5935,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874692</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1463.674302457628</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>1094.711785517216</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>736.4460869104657</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2189.908715988822</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1837.140060718708</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>1463.674302457628</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1463.674302457628</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6169,28 +6169,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>601.483733793032</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>601.483733793032</v>
       </c>
       <c r="T25" t="n">
-        <v>512.0527750937034</v>
+        <v>601.483733793032</v>
       </c>
       <c r="U25" t="n">
-        <v>222.8791647482714</v>
+        <v>601.483733793032</v>
       </c>
       <c r="V25" t="n">
-        <v>222.8791647482714</v>
+        <v>601.483733793032</v>
       </c>
       <c r="W25" t="n">
-        <v>222.8791647482714</v>
+        <v>601.483733793032</v>
       </c>
       <c r="X25" t="n">
-        <v>222.8791647482714</v>
+        <v>601.483733793032</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776798</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D26" t="n">
-        <v>819.7159451700475</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E26" t="n">
-        <v>433.9276925718032</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>433.9276925718032</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036446</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6254,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.366829819089</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.366829819089</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2338.303942475518</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2338.303942475518</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="27">
@@ -6306,7 +6306,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
         <v>670.8219208598713</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D28" t="n">
-        <v>550.5654064942403</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E28" t="n">
-        <v>415.489254012808</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5993065148977</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036446</v>
@@ -6403,31 +6403,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D29" t="n">
-        <v>819.715945170047</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718028</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>198.3649279520081</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>198.3649279520081</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>198.3649279520081</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6464,10 +6464,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6494,19 +6494,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6552,37 +6552,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2549.235997435829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2402.346049937919</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2233.346249676251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2075.597877108782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1540.921096014692</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C32" t="n">
-        <v>1540.921096014692</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D32" t="n">
-        <v>1182.655397407941</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>802.869519872115</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>391.8836150825074</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224075</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>1540.921096014692</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.921096014692</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>272.8312459770186</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="C34" t="n">
-        <v>103.8950630491117</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>2446.647377099707</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="W34" t="n">
-        <v>500.820796875036</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="X34" t="n">
-        <v>272.8312459770186</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="Y34" t="n">
-        <v>272.8312459770186</v>
+        <v>2191.96288889382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1954.241103772296</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C35" t="n">
-        <v>1585.278586831885</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D35" t="n">
-        <v>1227.012888225134</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E35" t="n">
-        <v>841.2246356268899</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F35" t="n">
-        <v>430.2387308372824</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2344.380435748108</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y35" t="n">
-        <v>1954.241103772296</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2515.500626187983</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C37" t="n">
-        <v>2346.564443260076</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D37" t="n">
-        <v>2196.44780384774</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E37" t="n">
-        <v>2048.534710265347</v>
+        <v>142.8956217127931</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>142.8956217127931</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018222</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1637.643464250441</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>57.6062766639929</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>57.6062766639929</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7178,7 +7178,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2401.248554487333</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>2027.782796226253</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y38" t="n">
-        <v>1637.643464250441</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598713</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4143268306406</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>74.47814390273365</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>74.47814390273365</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>74.47814390273365</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>74.47814390273365</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600561</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="T40" t="n">
-        <v>471.4038777286579</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="U40" t="n">
-        <v>471.4038777286579</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="V40" t="n">
-        <v>471.4038777286579</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="W40" t="n">
-        <v>471.4038777286579</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X40" t="n">
-        <v>243.4143268306406</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>243.4143268306406</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7448,13 +7448,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7470,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2339.812365142453</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="C43" t="n">
-        <v>2170.876182214546</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="D43" t="n">
-        <v>2170.876182214546</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>2469.840903686824</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U43" t="n">
-        <v>2469.840903686824</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V43" t="n">
-        <v>2469.840903686824</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W43" t="n">
-        <v>2469.840903686824</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X43" t="n">
-        <v>2469.840903686824</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y43" t="n">
-        <v>2469.840903686824</v>
+        <v>70.01613615165607</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.175505447095</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C44" t="n">
-        <v>825.2129885066831</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D44" t="n">
-        <v>825.2129885066831</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="E44" t="n">
-        <v>825.2129885066831</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="F44" t="n">
-        <v>414.2270837170756</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>454.3214713479351</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X44" t="n">
-        <v>1970.914677487028</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y44" t="n">
-        <v>1580.775345511217</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
@@ -7743,25 +7743,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810002</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>418.2905476243737</v>
+        <v>275.0494145865512</v>
       </c>
       <c r="N3" t="n">
-        <v>182.9792244725715</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>203.0607155112742</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,7 +22562,7 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>311.0504335660243</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22629,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>77.60781874561135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>102.2858680599064</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,19 +22680,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22726,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>9.569146015438918</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.19643759900804</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>43.98398258378796</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,16 +22790,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>68.95861943951753</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,28 +22984,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>131.070385605397</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>178.4250850513991</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>25.24910919451753</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23179,7 +23179,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23188,19 +23188,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>103.6700396525344</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>107.8607497293018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>31.86743971662639</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>309.2728333501971</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>130.263902954042</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,28 +23890,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9809822185509</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>96.90822413894224</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>117.0233846211325</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24142,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>33.91094345912572</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787257</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="E23" t="n">
-        <v>120.0364660538565</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24263,16 +24263,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24409,16 +24409,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>21.28639407088968</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>11.11965843648079</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>37.59930637687069</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24494,13 +24494,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>188.9438817705154</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>96.5070324263497</v>
       </c>
       <c r="E28" t="n">
-        <v>12.70857168995127</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,13 +24616,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24680,16 +24680,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24698,7 +24698,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>8.953589574533993</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>82.85718120047579</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24889,10 +24889,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>237.0966106479285</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>79.22294309127341</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24962,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>99.16291260175257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25126,19 +25126,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>38.28517746264771</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>260.7615551004092</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>41.25137849404621</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>79.24668876554659</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25357,7 +25357,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,7 +25366,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25409,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>148.3046543496691</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>56.29943755183251</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>146.9799917975054</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343855</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>10.20105013673145</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.10372702300975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>130.5215398585905</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,16 +25831,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>57.10290914305097</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>79.47938437692352</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25922,13 +25922,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460672.7660746929</v>
+        <v>460672.766074693</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>159463.6497950859</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26329,7 +26329,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26341,19 +26341,19 @@
         <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
         <v>440708.0835147455</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
         <v>102466.1171957466</v>
@@ -26418,7 +26418,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26448,13 +26448,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597034</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26500,10 +26500,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18217.60858640836</v>
+        <v>-18217.60858640846</v>
       </c>
       <c r="C6" t="n">
-        <v>-263842.9210630331</v>
+        <v>-263842.9210630329</v>
       </c>
       <c r="D6" t="n">
-        <v>176865.1624517126</v>
+        <v>176865.1624517124</v>
       </c>
       <c r="E6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517125</v>
       </c>
       <c r="F6" t="n">
         <v>210492.7624517124</v>
       </c>
       <c r="G6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517125</v>
       </c>
       <c r="H6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517126</v>
       </c>
       <c r="I6" t="n">
         <v>210492.7624517124</v>
@@ -26546,22 +26546,22 @@
         <v>138238.0675805733</v>
       </c>
       <c r="K6" t="n">
-        <v>108026.6452559658</v>
+        <v>108026.6452559659</v>
       </c>
       <c r="L6" t="n">
+        <v>210492.7624517124</v>
+      </c>
+      <c r="M6" t="n">
         <v>210492.7624517125</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>210492.7624517124</v>
-      </c>
-      <c r="N6" t="n">
-        <v>210492.7624517125</v>
       </c>
       <c r="O6" t="n">
         <v>210492.7624517124</v>
       </c>
       <c r="P6" t="n">
-        <v>210492.7624517125</v>
+        <v>210492.7624517124</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26820,10 +26820,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
         <v>342.7224034979612</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
         <v>398.1307590522001</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590521999</v>
+        <v>398.1307590522</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
         <v>398.1307590522001</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31142,25 +31142,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,7 +31285,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,7 +31297,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,7 +31619,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31847,7 +31847,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -32078,7 +32078,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653307</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32324,28 +32324,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329986</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32552,7 +32552,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32789,7 +32789,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32804,7 +32804,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
@@ -33026,10 +33026,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L27" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33272,7 +33272,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
@@ -33500,7 +33500,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33518,7 +33518,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33737,7 +33737,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,7 +33752,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072874</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
@@ -33974,10 +33974,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -34229,7 +34229,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>132.9153806645328</v>
       </c>
       <c r="N3" t="n">
-        <v>51.63751238923823</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,19 +35495,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36452,7 +36452,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36674,10 +36674,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37400,7 +37400,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37546,7 +37546,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060965</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
